--- a/scripts/working/analysis/cgm_model_guide.xlsx
+++ b/scripts/working/analysis/cgm_model_guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafazahid/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafazahid/GitHub/loss_damage/scripts/working/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104DD211-D8DB-4641-8B23-62774F7ED4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0735CD4-FD48-E945-B846-101FA4D6419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="700" windowWidth="28040" windowHeight="16500" xr2:uid="{D49B03D7-76B4-DF4C-9258-CC3BE6BB58F8}"/>
+    <workbookView xWindow="680" yWindow="1360" windowWidth="28040" windowHeight="16420" xr2:uid="{D49B03D7-76B4-DF4C-9258-CC3BE6BB58F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>cgm_model</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>UKESM1-0-LL_r1i1p1f2</t>
+  </si>
+  <si>
+    <t>INM-CM5-0_r1i1p1f1</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20020D5A-BE08-404A-A02B-FA2DD4E81098}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +637,15 @@
         <v>29</v>
       </c>
     </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A30">
+    <sortCondition ref="A2:A30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>